--- a/CumulativeTestsByTypeByCounty/2021-05-12.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-05-12.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>55195</v>
+        <v>55247</v>
       </c>
       <c r="C2" s="4">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="D2" s="4">
-        <v>8356</v>
+        <v>8393</v>
       </c>
       <c r="E2" s="4">
-        <v>65058</v>
+        <v>65148</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>4286</v>
+        <v>4288</v>
       </c>
       <c r="C3" s="4">
         <v>250</v>
       </c>
       <c r="D3" s="4">
-        <v>2934</v>
+        <v>2944</v>
       </c>
       <c r="E3" s="4">
-        <v>7470</v>
+        <v>7482</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>59181</v>
+        <v>59223</v>
       </c>
       <c r="C4" s="4">
-        <v>3212</v>
+        <v>3231</v>
       </c>
       <c r="D4" s="4">
-        <v>30851</v>
+        <v>30945</v>
       </c>
       <c r="E4" s="4">
-        <v>93244</v>
+        <v>93399</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>8369</v>
+        <v>8406</v>
       </c>
       <c r="C5" s="4">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="D5" s="4">
-        <v>6120</v>
+        <v>6142</v>
       </c>
       <c r="E5" s="4">
-        <v>16803</v>
+        <v>16863</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,7 +1139,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="C6" s="4">
         <v>543</v>
@@ -1148,7 +1148,7 @@
         <v>597</v>
       </c>
       <c r="E6" s="4">
-        <v>4111</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C7" s="4">
         <v>262</v>
       </c>
       <c r="D7" s="4">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E7" s="4">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>62949</v>
+        <v>64123</v>
       </c>
       <c r="C8" s="4">
         <v>1216</v>
       </c>
       <c r="D8" s="4">
-        <v>5581</v>
+        <v>5603</v>
       </c>
       <c r="E8" s="4">
-        <v>69746</v>
+        <v>70942</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>18896</v>
+        <v>18936</v>
       </c>
       <c r="C9" s="4">
-        <v>1539</v>
+        <v>1552</v>
       </c>
       <c r="D9" s="4">
-        <v>1886</v>
+        <v>1901</v>
       </c>
       <c r="E9" s="4">
-        <v>22321</v>
+        <v>22389</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1927</v>
+        <v>1933</v>
       </c>
       <c r="C10" s="4">
         <v>63</v>
       </c>
       <c r="D10" s="4">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E10" s="4">
-        <v>2565</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>8627</v>
+        <v>8655</v>
       </c>
       <c r="C11" s="4">
         <v>544</v>
       </c>
       <c r="D11" s="4">
-        <v>4261</v>
+        <v>4276</v>
       </c>
       <c r="E11" s="4">
-        <v>13432</v>
+        <v>13475</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>55432</v>
+        <v>55561</v>
       </c>
       <c r="C12" s="4">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D12" s="4">
-        <v>19367</v>
+        <v>19428</v>
       </c>
       <c r="E12" s="4">
-        <v>76008</v>
+        <v>76199</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>33400</v>
+        <v>33417</v>
       </c>
       <c r="C14" s="4">
-        <v>5698</v>
+        <v>5718</v>
       </c>
       <c r="D14" s="4">
-        <v>8579</v>
+        <v>8623</v>
       </c>
       <c r="E14" s="4">
-        <v>47677</v>
+        <v>47758</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>258247</v>
+        <v>258648</v>
       </c>
       <c r="C15" s="4">
-        <v>13563</v>
+        <v>13565</v>
       </c>
       <c r="D15" s="4">
-        <v>22838</v>
+        <v>22981</v>
       </c>
       <c r="E15" s="4">
-        <v>294648</v>
+        <v>295194</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>2245353</v>
+        <v>2257729</v>
       </c>
       <c r="C16" s="4">
-        <v>55846</v>
+        <v>55868</v>
       </c>
       <c r="D16" s="4">
-        <v>241032</v>
+        <v>242446</v>
       </c>
       <c r="E16" s="4">
-        <v>2542231</v>
+        <v>2556043</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>5989</v>
+        <v>6008</v>
       </c>
       <c r="C17" s="4">
         <v>277</v>
       </c>
       <c r="D17" s="4">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E17" s="4">
-        <v>7194</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>9098</v>
+        <v>9112</v>
       </c>
       <c r="C19" s="4">
         <v>479</v>
       </c>
       <c r="D19" s="4">
-        <v>4819</v>
+        <v>4833</v>
       </c>
       <c r="E19" s="4">
-        <v>14396</v>
+        <v>14424</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>61638</v>
+        <v>61699</v>
       </c>
       <c r="C20" s="4">
         <v>9943</v>
       </c>
       <c r="D20" s="4">
-        <v>14623</v>
+        <v>14681</v>
       </c>
       <c r="E20" s="4">
-        <v>86204</v>
+        <v>86323</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>340718</v>
+        <v>341506</v>
       </c>
       <c r="C21" s="4">
-        <v>19796</v>
+        <v>19936</v>
       </c>
       <c r="D21" s="4">
-        <v>45767</v>
+        <v>46037</v>
       </c>
       <c r="E21" s="4">
-        <v>406281</v>
+        <v>407479</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>258197</v>
+        <v>258680</v>
       </c>
       <c r="C22" s="4">
-        <v>8898</v>
+        <v>8956</v>
       </c>
       <c r="D22" s="4">
-        <v>22297</v>
+        <v>22416</v>
       </c>
       <c r="E22" s="4">
-        <v>289392</v>
+        <v>290052</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8611</v>
+        <v>8615</v>
       </c>
       <c r="C23" s="4">
         <v>123</v>
@@ -1437,7 +1437,7 @@
         <v>1480</v>
       </c>
       <c r="E23" s="4">
-        <v>10214</v>
+        <v>10218</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C24" s="4">
         <v>125</v>
       </c>
       <c r="D24" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E24" s="4">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>17565</v>
+        <v>17588</v>
       </c>
       <c r="C25" s="4">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="D25" s="4">
-        <v>3127</v>
+        <v>3131</v>
       </c>
       <c r="E25" s="4">
-        <v>22180</v>
+        <v>22210</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>17215</v>
+        <v>17236</v>
       </c>
       <c r="C26" s="4">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D26" s="4">
-        <v>20354</v>
+        <v>20380</v>
       </c>
       <c r="E26" s="4">
-        <v>38399</v>
+        <v>38447</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>15374</v>
+        <v>15395</v>
       </c>
       <c r="C27" s="4">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="D27" s="4">
-        <v>2971</v>
+        <v>2980</v>
       </c>
       <c r="E27" s="4">
-        <v>18904</v>
+        <v>18938</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>36098</v>
+        <v>36225</v>
       </c>
       <c r="C28" s="4">
         <v>1178</v>
       </c>
       <c r="D28" s="4">
-        <v>4540</v>
+        <v>4566</v>
       </c>
       <c r="E28" s="4">
-        <v>41816</v>
+        <v>41969</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>35747</v>
+        <v>35873</v>
       </c>
       <c r="C29" s="4">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D29" s="4">
-        <v>6306</v>
+        <v>6321</v>
       </c>
       <c r="E29" s="4">
-        <v>43703</v>
+        <v>43845</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>14003</v>
+        <v>14024</v>
       </c>
       <c r="C30" s="4">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D30" s="4">
-        <v>5653</v>
+        <v>5658</v>
       </c>
       <c r="E30" s="4">
-        <v>20481</v>
+        <v>20508</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>5243</v>
+        <v>5244</v>
       </c>
       <c r="C31" s="4">
         <v>244</v>
       </c>
       <c r="D31" s="4">
-        <v>5880</v>
+        <v>5890</v>
       </c>
       <c r="E31" s="4">
-        <v>11367</v>
+        <v>11378</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>271963</v>
+        <v>272597</v>
       </c>
       <c r="C32" s="4">
-        <v>8253</v>
+        <v>8284</v>
       </c>
       <c r="D32" s="4">
-        <v>67595</v>
+        <v>67915</v>
       </c>
       <c r="E32" s="4">
-        <v>347811</v>
+        <v>348796</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>6095</v>
+        <v>6100</v>
       </c>
       <c r="C33" s="4">
         <v>387</v>
       </c>
       <c r="D33" s="4">
-        <v>2053</v>
+        <v>2058</v>
       </c>
       <c r="E33" s="4">
-        <v>8535</v>
+        <v>8545</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1621,10 +1621,10 @@
         <v>937</v>
       </c>
       <c r="D34" s="4">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="E34" s="4">
-        <v>3269</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>12534</v>
+        <v>12574</v>
       </c>
       <c r="C35" s="4">
         <v>3168</v>
       </c>
       <c r="D35" s="4">
-        <v>4352</v>
+        <v>4369</v>
       </c>
       <c r="E35" s="4">
-        <v>20054</v>
+        <v>20111</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>4274</v>
+        <v>4281</v>
       </c>
       <c r="C36" s="4">
         <v>275</v>
       </c>
       <c r="D36" s="4">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="E36" s="4">
-        <v>6504</v>
+        <v>6512</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>8640</v>
+        <v>8667</v>
       </c>
       <c r="C37" s="4">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D37" s="4">
-        <v>1690</v>
+        <v>1700</v>
       </c>
       <c r="E37" s="4">
-        <v>11103</v>
+        <v>11141</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>24951</v>
+        <v>24965</v>
       </c>
       <c r="C38" s="4">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="D38" s="4">
-        <v>9864</v>
+        <v>9894</v>
       </c>
       <c r="E38" s="4">
-        <v>35714</v>
+        <v>35778</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>3175</v>
+        <v>3178</v>
       </c>
       <c r="C39" s="4">
         <v>390</v>
       </c>
       <c r="D39" s="4">
-        <v>4662</v>
+        <v>4733</v>
       </c>
       <c r="E39" s="4">
-        <v>8227</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>4227</v>
+        <v>4231</v>
       </c>
       <c r="C40" s="4">
         <v>491</v>
       </c>
       <c r="D40" s="4">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="E40" s="4">
-        <v>6600</v>
+        <v>6607</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="C41" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D41" s="4">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E41" s="4">
-        <v>1188</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,7 +1751,7 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C42" s="4">
         <v>32</v>
@@ -1760,7 +1760,7 @@
         <v>1854</v>
       </c>
       <c r="E42" s="4">
-        <v>3890</v>
+        <v>3891</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>3119</v>
+        <v>3122</v>
       </c>
       <c r="C43" s="4">
         <v>102</v>
       </c>
       <c r="D43" s="4">
-        <v>2962</v>
+        <v>2968</v>
       </c>
       <c r="E43" s="4">
-        <v>6183</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>945614</v>
+        <v>947770</v>
       </c>
       <c r="C44" s="4">
-        <v>83841</v>
+        <v>83927</v>
       </c>
       <c r="D44" s="4">
-        <v>123625</v>
+        <v>124408</v>
       </c>
       <c r="E44" s="4">
-        <v>1153080</v>
+        <v>1156105</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C45" s="4">
         <v>105</v>
       </c>
       <c r="D45" s="4">
-        <v>1567</v>
+        <v>1576</v>
       </c>
       <c r="E45" s="4">
-        <v>2838</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>12308</v>
+        <v>12322</v>
       </c>
       <c r="C46" s="4">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="D46" s="4">
-        <v>4940</v>
+        <v>4949</v>
       </c>
       <c r="E46" s="4">
-        <v>18226</v>
+        <v>18251</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>106162</v>
+        <v>106527</v>
       </c>
       <c r="C47" s="4">
-        <v>8273</v>
+        <v>8281</v>
       </c>
       <c r="D47" s="4">
-        <v>23648</v>
+        <v>23772</v>
       </c>
       <c r="E47" s="4">
-        <v>138083</v>
+        <v>138580</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>6640</v>
+        <v>6647</v>
       </c>
       <c r="C48" s="4">
         <v>303</v>
       </c>
       <c r="D48" s="4">
-        <v>2646</v>
+        <v>2651</v>
       </c>
       <c r="E48" s="4">
-        <v>9589</v>
+        <v>9601</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1496</v>
+        <v>1498</v>
       </c>
       <c r="C49" s="4">
         <v>21</v>
       </c>
       <c r="D49" s="4">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="E49" s="4">
-        <v>3254</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>23847</v>
+        <v>23874</v>
       </c>
       <c r="C50" s="4">
         <v>1406</v>
       </c>
       <c r="D50" s="4">
-        <v>5689</v>
+        <v>5708</v>
       </c>
       <c r="E50" s="4">
-        <v>30942</v>
+        <v>30988</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>89558</v>
+        <v>89635</v>
       </c>
       <c r="C51" s="4">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="D51" s="4">
-        <v>5472</v>
+        <v>5535</v>
       </c>
       <c r="E51" s="4">
-        <v>97235</v>
+        <v>97376</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1927,10 +1927,10 @@
         <v>46</v>
       </c>
       <c r="D52" s="4">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="E52" s="4">
-        <v>1569</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4465</v>
+        <v>4468</v>
       </c>
       <c r="C53" s="4">
         <v>69</v>
       </c>
       <c r="D53" s="4">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="E53" s="4">
-        <v>5807</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1961,10 +1961,10 @@
         <v>19</v>
       </c>
       <c r="D54" s="4">
-        <v>1989</v>
+        <v>1994</v>
       </c>
       <c r="E54" s="4">
-        <v>2968</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2573</v>
+        <v>2577</v>
       </c>
       <c r="C55" s="4">
         <v>36</v>
       </c>
       <c r="D55" s="4">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="E55" s="4">
-        <v>4354</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2199</v>
+        <v>2201</v>
       </c>
       <c r="C56" s="4">
         <v>15</v>
       </c>
       <c r="D56" s="4">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E56" s="4">
-        <v>2377</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="C57" s="4">
         <v>383</v>
       </c>
       <c r="D57" s="4">
-        <v>1892</v>
+        <v>1896</v>
       </c>
       <c r="E57" s="4">
-        <v>3827</v>
+        <v>3835</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>2388769</v>
+        <v>2394160</v>
       </c>
       <c r="C58" s="4">
-        <v>135463</v>
+        <v>135546</v>
       </c>
       <c r="D58" s="4">
-        <v>253508</v>
+        <v>255162</v>
       </c>
       <c r="E58" s="4">
-        <v>2777740</v>
+        <v>2784868</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>8136</v>
+        <v>8143</v>
       </c>
       <c r="C59" s="4">
         <v>489</v>
       </c>
       <c r="D59" s="4">
-        <v>2782</v>
+        <v>2793</v>
       </c>
       <c r="E59" s="4">
-        <v>11407</v>
+        <v>11425</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>9373</v>
+        <v>9388</v>
       </c>
       <c r="C60" s="4">
         <v>309</v>
       </c>
       <c r="D60" s="4">
-        <v>2954</v>
+        <v>2968</v>
       </c>
       <c r="E60" s="4">
-        <v>12636</v>
+        <v>12665</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4980</v>
+        <v>5006</v>
       </c>
       <c r="C61" s="4">
         <v>984</v>
       </c>
       <c r="D61" s="4">
-        <v>2792</v>
+        <v>2811</v>
       </c>
       <c r="E61" s="4">
-        <v>8756</v>
+        <v>8801</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1847</v>
+        <v>1852</v>
       </c>
       <c r="C62" s="4">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D62" s="4">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="E62" s="4">
-        <v>3198</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>589183</v>
+        <v>590317</v>
       </c>
       <c r="C63" s="4">
-        <v>60931</v>
+        <v>60952</v>
       </c>
       <c r="D63" s="4">
-        <v>105608</v>
+        <v>106197</v>
       </c>
       <c r="E63" s="4">
-        <v>755722</v>
+        <v>757466</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>15042</v>
+        <v>15054</v>
       </c>
       <c r="C65" s="4">
         <v>110</v>
       </c>
       <c r="D65" s="4">
-        <v>11694</v>
+        <v>11843</v>
       </c>
       <c r="E65" s="4">
-        <v>26846</v>
+        <v>27007</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2165,10 +2165,10 @@
         <v>399</v>
       </c>
       <c r="D66" s="4">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="E66" s="4">
-        <v>2510</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>17622</v>
+        <v>17635</v>
       </c>
       <c r="C67" s="4">
-        <v>2598</v>
+        <v>2606</v>
       </c>
       <c r="D67" s="4">
-        <v>3803</v>
+        <v>3815</v>
       </c>
       <c r="E67" s="4">
-        <v>24023</v>
+        <v>24056</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>4879</v>
+        <v>4888</v>
       </c>
       <c r="C68" s="4">
         <v>386</v>
       </c>
       <c r="D68" s="4">
-        <v>3994</v>
+        <v>4006</v>
       </c>
       <c r="E68" s="4">
-        <v>9259</v>
+        <v>9280</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>60050</v>
+        <v>60118</v>
       </c>
       <c r="C69" s="4">
         <v>4916</v>
       </c>
       <c r="D69" s="4">
-        <v>23148</v>
+        <v>23201</v>
       </c>
       <c r="E69" s="4">
-        <v>88114</v>
+        <v>88235</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="C70" s="4">
         <v>34</v>
       </c>
       <c r="D70" s="4">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E70" s="4">
-        <v>1555</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>893867</v>
+        <v>895708</v>
       </c>
       <c r="C71" s="4">
-        <v>17202</v>
+        <v>17222</v>
       </c>
       <c r="D71" s="4">
-        <v>348018</v>
+        <v>348313</v>
       </c>
       <c r="E71" s="4">
-        <v>1259087</v>
+        <v>1261243</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>168958</v>
+        <v>169402</v>
       </c>
       <c r="C72" s="4">
-        <v>7267</v>
+        <v>7271</v>
       </c>
       <c r="D72" s="4">
-        <v>18845</v>
+        <v>18961</v>
       </c>
       <c r="E72" s="4">
-        <v>195070</v>
+        <v>195634</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>19246</v>
+        <v>19290</v>
       </c>
       <c r="C73" s="4">
         <v>1170</v>
       </c>
       <c r="D73" s="4">
-        <v>7955</v>
+        <v>7965</v>
       </c>
       <c r="E73" s="4">
-        <v>28371</v>
+        <v>28425</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>12662</v>
+        <v>12674</v>
       </c>
       <c r="C74" s="4">
         <v>420</v>
       </c>
       <c r="D74" s="4">
-        <v>3601</v>
+        <v>3619</v>
       </c>
       <c r="E74" s="4">
-        <v>16683</v>
+        <v>16713</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>27455</v>
+        <v>27757</v>
       </c>
       <c r="C75" s="4">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D75" s="4">
-        <v>5379</v>
+        <v>5418</v>
       </c>
       <c r="E75" s="4">
-        <v>33690</v>
+        <v>34032</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>15423</v>
+        <v>15450</v>
       </c>
       <c r="C76" s="4">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D76" s="4">
-        <v>3006</v>
+        <v>3015</v>
       </c>
       <c r="E76" s="4">
-        <v>19102</v>
+        <v>19139</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="C77" s="4">
         <v>33</v>
       </c>
       <c r="D77" s="4">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E77" s="4">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>2530</v>
+        <v>2539</v>
       </c>
       <c r="C78" s="4">
         <v>121</v>
       </c>
       <c r="D78" s="4">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E78" s="4">
-        <v>3064</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>686272</v>
+        <v>687805</v>
       </c>
       <c r="C80" s="4">
-        <v>39423</v>
+        <v>39688</v>
       </c>
       <c r="D80" s="4">
-        <v>58706</v>
+        <v>59057</v>
       </c>
       <c r="E80" s="4">
-        <v>784401</v>
+        <v>786550</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>4563</v>
+        <v>4568</v>
       </c>
       <c r="C81" s="4">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D81" s="4">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="E81" s="4">
-        <v>5919</v>
+        <v>5929</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>14312</v>
+        <v>14366</v>
       </c>
       <c r="C82" s="4">
         <v>693</v>
       </c>
       <c r="D82" s="4">
-        <v>6762</v>
+        <v>6793</v>
       </c>
       <c r="E82" s="4">
-        <v>21767</v>
+        <v>21852</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>18183</v>
+        <v>18314</v>
       </c>
       <c r="C83" s="4">
         <v>507</v>
       </c>
       <c r="D83" s="4">
-        <v>1234</v>
+        <v>1239</v>
       </c>
       <c r="E83" s="4">
-        <v>19924</v>
+        <v>20060</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>3471</v>
+        <v>3477</v>
       </c>
       <c r="C84" s="4">
         <v>233</v>
       </c>
       <c r="D84" s="4">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="E84" s="4">
-        <v>4822</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>364972</v>
+        <v>366165</v>
       </c>
       <c r="C85" s="4">
-        <v>19499</v>
+        <v>19702</v>
       </c>
       <c r="D85" s="4">
-        <v>35541</v>
+        <v>35800</v>
       </c>
       <c r="E85" s="4">
-        <v>420012</v>
+        <v>421667</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>2100</v>
+        <v>2102</v>
       </c>
       <c r="C86" s="4">
         <v>53</v>
       </c>
       <c r="D86" s="4">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="E86" s="4">
-        <v>3613</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>15837</v>
+        <v>15857</v>
       </c>
       <c r="C87" s="4">
         <v>468</v>
       </c>
       <c r="D87" s="4">
-        <v>4128</v>
+        <v>4140</v>
       </c>
       <c r="E87" s="4">
-        <v>20433</v>
+        <v>20465</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2823</v>
+        <v>2829</v>
       </c>
       <c r="C89" s="4">
         <v>180</v>
       </c>
       <c r="D89" s="4">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E89" s="4">
-        <v>5013</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>12876</v>
+        <v>12892</v>
       </c>
       <c r="C90" s="4">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D90" s="4">
-        <v>5629</v>
+        <v>5640</v>
       </c>
       <c r="E90" s="4">
-        <v>18885</v>
+        <v>18913</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>7991</v>
+        <v>8000</v>
       </c>
       <c r="C91" s="4">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D91" s="4">
-        <v>2980</v>
+        <v>2995</v>
       </c>
       <c r="E91" s="4">
-        <v>11977</v>
+        <v>12002</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>107267</v>
+        <v>107466</v>
       </c>
       <c r="C92" s="4">
-        <v>4191</v>
+        <v>4196</v>
       </c>
       <c r="D92" s="4">
-        <v>16646</v>
+        <v>16891</v>
       </c>
       <c r="E92" s="4">
-        <v>128104</v>
+        <v>128553</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>49776</v>
+        <v>49829</v>
       </c>
       <c r="C93" s="4">
-        <v>10593</v>
+        <v>10598</v>
       </c>
       <c r="D93" s="4">
-        <v>16982</v>
+        <v>17092</v>
       </c>
       <c r="E93" s="4">
-        <v>77351</v>
+        <v>77519</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>33702</v>
+        <v>33755</v>
       </c>
       <c r="C94" s="4">
-        <v>1116</v>
+        <v>1127</v>
       </c>
       <c r="D94" s="4">
-        <v>3381</v>
+        <v>3411</v>
       </c>
       <c r="E94" s="4">
-        <v>38199</v>
+        <v>38293</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>89015</v>
+        <v>89251</v>
       </c>
       <c r="C95" s="4">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="D95" s="4">
-        <v>19149</v>
+        <v>19239</v>
       </c>
       <c r="E95" s="4">
-        <v>112201</v>
+        <v>112528</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>15777</v>
+        <v>15843</v>
       </c>
       <c r="C96" s="4">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D96" s="4">
-        <v>3004</v>
+        <v>3031</v>
       </c>
       <c r="E96" s="4">
-        <v>19115</v>
+        <v>19209</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1197</v>
+        <v>1200</v>
       </c>
       <c r="C97" s="4">
         <v>59</v>
       </c>
       <c r="D97" s="4">
-        <v>2244</v>
+        <v>2262</v>
       </c>
       <c r="E97" s="4">
-        <v>3500</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>5681</v>
+        <v>5701</v>
       </c>
       <c r="C98" s="4">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D98" s="4">
-        <v>1486</v>
+        <v>1493</v>
       </c>
       <c r="E98" s="4">
-        <v>7492</v>
+        <v>7520</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="C99" s="4">
         <v>684</v>
       </c>
       <c r="D99" s="4">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="E99" s="4">
-        <v>3925</v>
+        <v>3928</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1598</v>
+        <v>1600</v>
       </c>
       <c r="C100" s="4">
         <v>238</v>
       </c>
       <c r="D100" s="4">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="E100" s="4">
-        <v>2911</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>22116</v>
+        <v>22165</v>
       </c>
       <c r="C101" s="4">
-        <v>3376</v>
+        <v>3382</v>
       </c>
       <c r="D101" s="4">
-        <v>9825</v>
+        <v>9875</v>
       </c>
       <c r="E101" s="4">
-        <v>35317</v>
+        <v>35422</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>4219917</v>
+        <v>4229268</v>
       </c>
       <c r="C102" s="4">
-        <v>220269</v>
+        <v>221549</v>
       </c>
       <c r="D102" s="4">
-        <v>437811</v>
+        <v>441987</v>
       </c>
       <c r="E102" s="4">
-        <v>4877997</v>
+        <v>4892804</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>59830</v>
+        <v>59871</v>
       </c>
       <c r="C103" s="4">
-        <v>7892</v>
+        <v>7900</v>
       </c>
       <c r="D103" s="4">
-        <v>10098</v>
+        <v>10157</v>
       </c>
       <c r="E103" s="4">
-        <v>77820</v>
+        <v>77928</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C104" s="4">
         <v>60</v>
       </c>
       <c r="D104" s="4">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E104" s="4">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C105" s="4">
         <v>36</v>
       </c>
       <c r="D105" s="4">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="E105" s="4">
-        <v>2842</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>254032</v>
+        <v>254782</v>
       </c>
       <c r="C106" s="4">
-        <v>10870</v>
+        <v>10878</v>
       </c>
       <c r="D106" s="4">
-        <v>22362</v>
+        <v>22483</v>
       </c>
       <c r="E106" s="4">
-        <v>287264</v>
+        <v>288143</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2862,10 +2862,10 @@
         <v>403</v>
       </c>
       <c r="D107" s="4">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E107" s="4">
-        <v>1550</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>27389</v>
+        <v>27430</v>
       </c>
       <c r="C108" s="4">
-        <v>2301</v>
+        <v>2303</v>
       </c>
       <c r="D108" s="4">
-        <v>9894</v>
+        <v>9973</v>
       </c>
       <c r="E108" s="4">
-        <v>39584</v>
+        <v>39706</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>468095</v>
+        <v>469175</v>
       </c>
       <c r="C109" s="4">
-        <v>16155</v>
+        <v>16176</v>
       </c>
       <c r="D109" s="4">
-        <v>195231</v>
+        <v>195849</v>
       </c>
       <c r="E109" s="4">
-        <v>679481</v>
+        <v>681200</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>32979</v>
+        <v>33043</v>
       </c>
       <c r="C110" s="4">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D110" s="4">
-        <v>7086</v>
+        <v>7103</v>
       </c>
       <c r="E110" s="4">
-        <v>41057</v>
+        <v>41139</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>8537</v>
+        <v>8567</v>
       </c>
       <c r="C111" s="4">
         <v>117</v>
       </c>
       <c r="D111" s="4">
-        <v>3453</v>
+        <v>3459</v>
       </c>
       <c r="E111" s="4">
-        <v>12107</v>
+        <v>12143</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>35756</v>
+        <v>35814</v>
       </c>
       <c r="C112" s="4">
         <v>2471</v>
       </c>
       <c r="D112" s="4">
-        <v>21286</v>
+        <v>21324</v>
       </c>
       <c r="E112" s="4">
-        <v>59513</v>
+        <v>59609</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>17470</v>
+        <v>17494</v>
       </c>
       <c r="C113" s="4">
-        <v>1882</v>
+        <v>1884</v>
       </c>
       <c r="D113" s="4">
-        <v>4752</v>
+        <v>4762</v>
       </c>
       <c r="E113" s="4">
-        <v>24104</v>
+        <v>24140</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>15440</v>
+        <v>15452</v>
       </c>
       <c r="C114" s="4">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D114" s="4">
-        <v>4183</v>
+        <v>4202</v>
       </c>
       <c r="E114" s="4">
-        <v>20100</v>
+        <v>20134</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>16916</v>
+        <v>16948</v>
       </c>
       <c r="C115" s="4">
         <v>556</v>
       </c>
       <c r="D115" s="4">
-        <v>5111</v>
+        <v>5127</v>
       </c>
       <c r="E115" s="4">
-        <v>22583</v>
+        <v>22631</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2588</v>
+        <v>2596</v>
       </c>
       <c r="C116" s="4">
         <v>32</v>
       </c>
       <c r="D116" s="4">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E116" s="4">
-        <v>3742</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>79432</v>
+        <v>79621</v>
       </c>
       <c r="C117" s="4">
-        <v>3865</v>
+        <v>3871</v>
       </c>
       <c r="D117" s="4">
-        <v>12958</v>
+        <v>13024</v>
       </c>
       <c r="E117" s="4">
-        <v>96255</v>
+        <v>96516</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>8627</v>
+        <v>8640</v>
       </c>
       <c r="C118" s="4">
         <v>1489</v>
       </c>
       <c r="D118" s="4">
-        <v>4566</v>
+        <v>4581</v>
       </c>
       <c r="E118" s="4">
-        <v>14682</v>
+        <v>14710</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3066,10 +3066,10 @@
         <v>12</v>
       </c>
       <c r="D119" s="4">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E119" s="4">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="C120" s="4">
         <v>198</v>
       </c>
       <c r="D120" s="4">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E120" s="4">
-        <v>2756</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>7254</v>
+        <v>7270</v>
       </c>
       <c r="C121" s="4">
         <v>231</v>
       </c>
       <c r="D121" s="4">
-        <v>2083</v>
+        <v>2092</v>
       </c>
       <c r="E121" s="4">
-        <v>9568</v>
+        <v>9593</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>14990</v>
+        <v>15022</v>
       </c>
       <c r="C122" s="4">
-        <v>2627</v>
+        <v>2631</v>
       </c>
       <c r="D122" s="4">
-        <v>4822</v>
+        <v>4844</v>
       </c>
       <c r="E122" s="4">
-        <v>22439</v>
+        <v>22497</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1803</v>
+        <v>1806</v>
       </c>
       <c r="C123" s="4">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D123" s="4">
         <v>277</v>
       </c>
       <c r="E123" s="4">
-        <v>2126</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>166598</v>
+        <v>166801</v>
       </c>
       <c r="C124" s="4">
-        <v>12771</v>
+        <v>12830</v>
       </c>
       <c r="D124" s="4">
-        <v>44249</v>
+        <v>44529</v>
       </c>
       <c r="E124" s="4">
-        <v>223618</v>
+        <v>224160</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>13911</v>
+        <v>13918</v>
       </c>
       <c r="C125" s="4">
         <v>587</v>
       </c>
       <c r="D125" s="4">
-        <v>3569</v>
+        <v>3574</v>
       </c>
       <c r="E125" s="4">
-        <v>18067</v>
+        <v>18079</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>49085</v>
+        <v>49130</v>
       </c>
       <c r="C126" s="4">
-        <v>8327</v>
+        <v>8347</v>
       </c>
       <c r="D126" s="4">
-        <v>17438</v>
+        <v>17476</v>
       </c>
       <c r="E126" s="4">
-        <v>74850</v>
+        <v>74953</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>119812</v>
+        <v>120091</v>
       </c>
       <c r="C127" s="4">
-        <v>6818</v>
+        <v>6851</v>
       </c>
       <c r="D127" s="4">
-        <v>19250</v>
+        <v>19340</v>
       </c>
       <c r="E127" s="4">
-        <v>145880</v>
+        <v>146282</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>6324</v>
+        <v>6330</v>
       </c>
       <c r="C128" s="4">
         <v>202</v>
       </c>
       <c r="D128" s="4">
-        <v>3391</v>
+        <v>3397</v>
       </c>
       <c r="E128" s="4">
-        <v>9917</v>
+        <v>9929</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>14708</v>
+        <v>14722</v>
       </c>
       <c r="C129" s="4">
         <v>468</v>
       </c>
       <c r="D129" s="4">
-        <v>5512</v>
+        <v>5525</v>
       </c>
       <c r="E129" s="4">
-        <v>20688</v>
+        <v>20715</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>106442</v>
+        <v>106690</v>
       </c>
       <c r="C130" s="4">
-        <v>5398</v>
+        <v>5403</v>
       </c>
       <c r="D130" s="4">
-        <v>20642</v>
+        <v>20737</v>
       </c>
       <c r="E130" s="4">
-        <v>132482</v>
+        <v>132830</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>24890</v>
+        <v>24974</v>
       </c>
       <c r="C131" s="4">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="D131" s="4">
-        <v>10078</v>
+        <v>10099</v>
       </c>
       <c r="E131" s="4">
-        <v>36647</v>
+        <v>36753</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C132" s="4">
         <v>40</v>
@@ -3290,7 +3290,7 @@
         <v>73</v>
       </c>
       <c r="E132" s="4">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3304,10 +3304,10 @@
         <v>1</v>
       </c>
       <c r="D133" s="4">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E133" s="4">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>31974</v>
+        <v>32007</v>
       </c>
       <c r="C134" s="4">
         <v>934</v>
       </c>
       <c r="D134" s="4">
-        <v>21076</v>
+        <v>21117</v>
       </c>
       <c r="E134" s="4">
-        <v>53984</v>
+        <v>54058</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1687</v>
+        <v>1693</v>
       </c>
       <c r="C135" s="4">
         <v>41</v>
@@ -3341,7 +3341,7 @@
         <v>425</v>
       </c>
       <c r="E135" s="4">
-        <v>2153</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3355,10 +3355,10 @@
         <v>4</v>
       </c>
       <c r="D136" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E136" s="4">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,7 +3366,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="C137" s="4">
         <v>44</v>
@@ -3375,7 +3375,7 @@
         <v>173</v>
       </c>
       <c r="E137" s="4">
-        <v>2424</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>26939</v>
+        <v>26961</v>
       </c>
       <c r="C138" s="4">
-        <v>4677</v>
+        <v>4685</v>
       </c>
       <c r="D138" s="4">
-        <v>8189</v>
+        <v>8221</v>
       </c>
       <c r="E138" s="4">
-        <v>39805</v>
+        <v>39867</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3406,10 +3406,10 @@
         <v>41</v>
       </c>
       <c r="D139" s="4">
-        <v>2642</v>
+        <v>2655</v>
       </c>
       <c r="E139" s="4">
-        <v>3363</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>7424</v>
+        <v>7429</v>
       </c>
       <c r="C140" s="4">
         <v>296</v>
       </c>
       <c r="D140" s="4">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="E140" s="4">
-        <v>8299</v>
+        <v>8311</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>22620</v>
+        <v>22666</v>
       </c>
       <c r="C141" s="4">
         <v>2429</v>
       </c>
       <c r="D141" s="4">
-        <v>4920</v>
+        <v>4950</v>
       </c>
       <c r="E141" s="4">
-        <v>29969</v>
+        <v>30045</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>5720</v>
+        <v>5736</v>
       </c>
       <c r="C142" s="4">
         <v>108</v>
       </c>
       <c r="D142" s="4">
-        <v>5297</v>
+        <v>5299</v>
       </c>
       <c r="E142" s="4">
-        <v>11125</v>
+        <v>11143</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>17291</v>
+        <v>17328</v>
       </c>
       <c r="C143" s="4">
         <v>632</v>
       </c>
       <c r="D143" s="4">
-        <v>4273</v>
+        <v>4285</v>
       </c>
       <c r="E143" s="4">
-        <v>22196</v>
+        <v>22245</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>12073</v>
+        <v>12121</v>
       </c>
       <c r="C144" s="4">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="D144" s="4">
-        <v>3868</v>
+        <v>3901</v>
       </c>
       <c r="E144" s="4">
-        <v>16667</v>
+        <v>16751</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>8344</v>
+        <v>8354</v>
       </c>
       <c r="C145" s="4">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D145" s="4">
-        <v>3478</v>
+        <v>3482</v>
       </c>
       <c r="E145" s="4">
-        <v>12083</v>
+        <v>12101</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>9930</v>
+        <v>9966</v>
       </c>
       <c r="C146" s="4">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="D146" s="4">
-        <v>2438</v>
+        <v>2446</v>
       </c>
       <c r="E146" s="4">
-        <v>13044</v>
+        <v>13092</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>55525</v>
+        <v>55635</v>
       </c>
       <c r="C147" s="4">
-        <v>3981</v>
+        <v>3992</v>
       </c>
       <c r="D147" s="4">
-        <v>8335</v>
+        <v>8429</v>
       </c>
       <c r="E147" s="4">
-        <v>67841</v>
+        <v>68056</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>29888</v>
+        <v>29923</v>
       </c>
       <c r="C148" s="4">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D148" s="4">
-        <v>10568</v>
+        <v>10583</v>
       </c>
       <c r="E148" s="4">
-        <v>41073</v>
+        <v>41124</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>5557</v>
+        <v>5565</v>
       </c>
       <c r="C150" s="4">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D150" s="4">
-        <v>1026</v>
+        <v>1036</v>
       </c>
       <c r="E150" s="4">
-        <v>7531</v>
+        <v>7550</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>11340</v>
+        <v>11376</v>
       </c>
       <c r="C151" s="4">
         <v>348</v>
       </c>
       <c r="D151" s="4">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E151" s="4">
-        <v>13347</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>206672</v>
+        <v>207058</v>
       </c>
       <c r="C153" s="4">
-        <v>7650</v>
+        <v>7652</v>
       </c>
       <c r="D153" s="4">
-        <v>99589</v>
+        <v>99690</v>
       </c>
       <c r="E153" s="4">
-        <v>313911</v>
+        <v>314400</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="C154" s="4">
         <v>119</v>
       </c>
       <c r="D154" s="4">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="E154" s="4">
-        <v>5579</v>
+        <v>5581</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>13028</v>
+        <v>13047</v>
       </c>
       <c r="C155" s="4">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D155" s="4">
-        <v>2585</v>
+        <v>2593</v>
       </c>
       <c r="E155" s="4">
-        <v>15913</v>
+        <v>15941</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>2485</v>
+        <v>2492</v>
       </c>
       <c r="C156" s="4">
         <v>804</v>
       </c>
       <c r="D156" s="4">
-        <v>1931</v>
+        <v>1937</v>
       </c>
       <c r="E156" s="4">
-        <v>5220</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1251</v>
+        <v>1258</v>
       </c>
       <c r="C157" s="4">
         <v>140</v>
       </c>
       <c r="D157" s="4">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="E157" s="4">
-        <v>2075</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1940</v>
+        <v>1942</v>
       </c>
       <c r="C158" s="4">
         <v>65</v>
       </c>
       <c r="D158" s="4">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="E158" s="4">
-        <v>2549</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>33856</v>
+        <v>33968</v>
       </c>
       <c r="C159" s="4">
-        <v>1468</v>
+        <v>1493</v>
       </c>
       <c r="D159" s="4">
-        <v>3450</v>
+        <v>3452</v>
       </c>
       <c r="E159" s="4">
-        <v>38774</v>
+        <v>38913</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>59948</v>
+        <v>60022</v>
       </c>
       <c r="C160" s="4">
         <v>419</v>
       </c>
       <c r="D160" s="4">
-        <v>9837</v>
+        <v>9855</v>
       </c>
       <c r="E160" s="4">
-        <v>70204</v>
+        <v>70296</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2363</v>
+        <v>2368</v>
       </c>
       <c r="C161" s="4">
         <v>48</v>
       </c>
       <c r="D161" s="4">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="E161" s="4">
-        <v>3918</v>
+        <v>3927</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>254150</v>
+        <v>254961</v>
       </c>
       <c r="C162" s="4">
-        <v>10096</v>
+        <v>10101</v>
       </c>
       <c r="D162" s="4">
-        <v>58040</v>
+        <v>58269</v>
       </c>
       <c r="E162" s="4">
-        <v>322286</v>
+        <v>323331</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>30568</v>
+        <v>30688</v>
       </c>
       <c r="C164" s="4">
         <v>1306</v>
       </c>
       <c r="D164" s="4">
-        <v>6936</v>
+        <v>6952</v>
       </c>
       <c r="E164" s="4">
-        <v>38810</v>
+        <v>38946</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2055</v>
+        <v>2060</v>
       </c>
       <c r="C165" s="4">
         <v>21</v>
       </c>
       <c r="D165" s="4">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="E165" s="4">
-        <v>2461</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>47606</v>
+        <v>47770</v>
       </c>
       <c r="C166" s="4">
-        <v>6263</v>
+        <v>6269</v>
       </c>
       <c r="D166" s="4">
-        <v>43728</v>
+        <v>43929</v>
       </c>
       <c r="E166" s="4">
-        <v>97597</v>
+        <v>97968</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>16918</v>
+        <v>16949</v>
       </c>
       <c r="C167" s="4">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="D167" s="4">
-        <v>7274</v>
+        <v>7282</v>
       </c>
       <c r="E167" s="4">
-        <v>25196</v>
+        <v>25250</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>4812</v>
+        <v>4819</v>
       </c>
       <c r="C168" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D168" s="4">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="E168" s="4">
-        <v>6436</v>
+        <v>6450</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>5207</v>
+        <v>5210</v>
       </c>
       <c r="C169" s="4">
         <v>53</v>
       </c>
       <c r="D169" s="4">
-        <v>2841</v>
+        <v>2852</v>
       </c>
       <c r="E169" s="4">
-        <v>8101</v>
+        <v>8115</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>10970</v>
+        <v>11092</v>
       </c>
       <c r="C170" s="4">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D170" s="4">
-        <v>3154</v>
+        <v>3162</v>
       </c>
       <c r="E170" s="4">
-        <v>15053</v>
+        <v>15184</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>389948</v>
+        <v>391104</v>
       </c>
       <c r="C171" s="4">
-        <v>35082</v>
+        <v>35331</v>
       </c>
       <c r="D171" s="4">
-        <v>57768</v>
+        <v>58319</v>
       </c>
       <c r="E171" s="4">
-        <v>482798</v>
+        <v>484754</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>7671</v>
+        <v>7685</v>
       </c>
       <c r="C172" s="4">
         <v>955</v>
       </c>
       <c r="D172" s="4">
-        <v>1951</v>
+        <v>1964</v>
       </c>
       <c r="E172" s="4">
-        <v>10577</v>
+        <v>10604</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>5900</v>
+        <v>5904</v>
       </c>
       <c r="C173" s="4">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D173" s="4">
-        <v>4354</v>
+        <v>4359</v>
       </c>
       <c r="E173" s="4">
-        <v>10955</v>
+        <v>10965</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>42772</v>
+        <v>42821</v>
       </c>
       <c r="C175" s="4">
-        <v>3016</v>
+        <v>3087</v>
       </c>
       <c r="D175" s="4">
-        <v>9549</v>
+        <v>9572</v>
       </c>
       <c r="E175" s="4">
-        <v>55337</v>
+        <v>55480</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>26719</v>
+        <v>26775</v>
       </c>
       <c r="C176" s="4">
         <v>1651</v>
       </c>
       <c r="D176" s="4">
-        <v>10195</v>
+        <v>10241</v>
       </c>
       <c r="E176" s="4">
-        <v>38565</v>
+        <v>38667</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>3931</v>
+        <v>3938</v>
       </c>
       <c r="C177" s="4">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D177" s="4">
-        <v>2291</v>
+        <v>2298</v>
       </c>
       <c r="E177" s="4">
-        <v>7013</v>
+        <v>7029</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>8832</v>
+        <v>8833</v>
       </c>
       <c r="C178" s="4">
         <v>160</v>
       </c>
       <c r="D178" s="4">
-        <v>3457</v>
+        <v>3466</v>
       </c>
       <c r="E178" s="4">
-        <v>12449</v>
+        <v>12459</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>220584</v>
+        <v>221094</v>
       </c>
       <c r="C179" s="4">
-        <v>43265</v>
+        <v>43342</v>
       </c>
       <c r="D179" s="4">
-        <v>65021</v>
+        <v>65435</v>
       </c>
       <c r="E179" s="4">
-        <v>328870</v>
+        <v>329871</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C180" s="4">
         <v>315</v>
       </c>
       <c r="D180" s="4">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E180" s="4">
-        <v>1347</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C181" s="4">
         <v>315</v>
       </c>
       <c r="D181" s="4">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E181" s="4">
-        <v>1560</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>31560</v>
+        <v>31709</v>
       </c>
       <c r="C182" s="4">
-        <v>5663</v>
+        <v>5671</v>
       </c>
       <c r="D182" s="4">
-        <v>12691</v>
+        <v>12773</v>
       </c>
       <c r="E182" s="4">
-        <v>49914</v>
+        <v>50153</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>13736</v>
+        <v>13755</v>
       </c>
       <c r="C183" s="4">
         <v>949</v>
       </c>
       <c r="D183" s="4">
-        <v>5828</v>
+        <v>5850</v>
       </c>
       <c r="E183" s="4">
-        <v>20513</v>
+        <v>20554</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>9242</v>
+        <v>9245</v>
       </c>
       <c r="C184" s="4">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="D184" s="4">
-        <v>3414</v>
+        <v>3417</v>
       </c>
       <c r="E184" s="4">
-        <v>13781</v>
+        <v>13789</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>71976</v>
+        <v>72133</v>
       </c>
       <c r="C185" s="4">
-        <v>6029</v>
+        <v>6036</v>
       </c>
       <c r="D185" s="4">
-        <v>19860</v>
+        <v>19941</v>
       </c>
       <c r="E185" s="4">
-        <v>97865</v>
+        <v>98110</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="C186" s="4">
         <v>275</v>
       </c>
       <c r="D186" s="4">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E186" s="4">
-        <v>3754</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>10990</v>
+        <v>10997</v>
       </c>
       <c r="C187" s="4">
         <v>108</v>
       </c>
       <c r="D187" s="4">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="E187" s="4">
-        <v>12444</v>
+        <v>12457</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>37397</v>
+        <v>37452</v>
       </c>
       <c r="C188" s="4">
-        <v>2131</v>
+        <v>2148</v>
       </c>
       <c r="D188" s="4">
-        <v>7893</v>
+        <v>7926</v>
       </c>
       <c r="E188" s="4">
-        <v>47421</v>
+        <v>47526</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>76135</v>
+        <v>76236</v>
       </c>
       <c r="C189" s="4">
         <v>7736</v>
       </c>
       <c r="D189" s="4">
-        <v>15856</v>
+        <v>16080</v>
       </c>
       <c r="E189" s="4">
-        <v>99727</v>
+        <v>100052</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,7 +4267,7 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7363</v>
+        <v>7364</v>
       </c>
       <c r="C190" s="4">
         <v>49</v>
@@ -4276,7 +4276,7 @@
         <v>1453</v>
       </c>
       <c r="E190" s="4">
-        <v>8865</v>
+        <v>8866</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2972</v>
+        <v>2979</v>
       </c>
       <c r="C191" s="4">
         <v>404</v>
       </c>
       <c r="D191" s="4">
-        <v>834</v>
+        <v>844</v>
       </c>
       <c r="E191" s="4">
-        <v>4210</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>50560</v>
+        <v>50693</v>
       </c>
       <c r="C192" s="4">
         <v>15761</v>
       </c>
       <c r="D192" s="4">
-        <v>14871</v>
+        <v>15038</v>
       </c>
       <c r="E192" s="4">
-        <v>81192</v>
+        <v>81492</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>31</v>
       </c>
       <c r="D193" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E193" s="4">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1880</v>
+        <v>1882</v>
       </c>
       <c r="C194" s="4">
         <v>76</v>
       </c>
       <c r="D194" s="4">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E194" s="4">
-        <v>2538</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>6155</v>
+        <v>6164</v>
       </c>
       <c r="C195" s="4">
         <v>570</v>
       </c>
       <c r="D195" s="4">
-        <v>2259</v>
+        <v>2267</v>
       </c>
       <c r="E195" s="4">
-        <v>8984</v>
+        <v>9001</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>8223</v>
+        <v>8224</v>
       </c>
       <c r="C196" s="4">
         <v>219</v>
       </c>
       <c r="D196" s="4">
-        <v>4261</v>
+        <v>4267</v>
       </c>
       <c r="E196" s="4">
-        <v>12703</v>
+        <v>12710</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>4039</v>
+        <v>4040</v>
       </c>
       <c r="C197" s="4">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D197" s="4">
-        <v>3825</v>
+        <v>3830</v>
       </c>
       <c r="E197" s="4">
-        <v>8267</v>
+        <v>8274</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>12080</v>
+        <v>12096</v>
       </c>
       <c r="C199" s="4">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D199" s="4">
-        <v>7330</v>
+        <v>7339</v>
       </c>
       <c r="E199" s="4">
-        <v>19776</v>
+        <v>19803</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>74941</v>
+        <v>75059</v>
       </c>
       <c r="C200" s="4">
-        <v>5402</v>
+        <v>5407</v>
       </c>
       <c r="D200" s="4">
-        <v>6455</v>
+        <v>6511</v>
       </c>
       <c r="E200" s="4">
-        <v>86798</v>
+        <v>86977</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>5829</v>
+        <v>5833</v>
       </c>
       <c r="C201" s="4">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D201" s="4">
         <v>3228</v>
       </c>
       <c r="E201" s="4">
-        <v>9212</v>
+        <v>9218</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>19095</v>
+        <v>19106</v>
       </c>
       <c r="C202" s="4">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="D202" s="4">
-        <v>3350</v>
+        <v>3372</v>
       </c>
       <c r="E202" s="4">
-        <v>24553</v>
+        <v>24588</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>6354</v>
+        <v>6360</v>
       </c>
       <c r="C203" s="4">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D203" s="4">
-        <v>2417</v>
+        <v>2423</v>
       </c>
       <c r="E203" s="4">
-        <v>9378</v>
+        <v>9393</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>5803</v>
+        <v>5807</v>
       </c>
       <c r="C204" s="4">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D204" s="4">
-        <v>3236</v>
+        <v>3241</v>
       </c>
       <c r="E204" s="4">
-        <v>9262</v>
+        <v>9272</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>18243</v>
+        <v>18282</v>
       </c>
       <c r="C205" s="4">
-        <v>2087</v>
+        <v>2095</v>
       </c>
       <c r="D205" s="4">
-        <v>4367</v>
+        <v>4415</v>
       </c>
       <c r="E205" s="4">
-        <v>24697</v>
+        <v>24792</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>30965</v>
+        <v>31036</v>
       </c>
       <c r="C206" s="4">
-        <v>7897</v>
+        <v>7910</v>
       </c>
       <c r="D206" s="4">
-        <v>20021</v>
+        <v>20127</v>
       </c>
       <c r="E206" s="4">
-        <v>58883</v>
+        <v>59073</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2985</v>
+        <v>3068</v>
       </c>
       <c r="C207" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D207" s="4">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="E207" s="4">
-        <v>5317</v>
+        <v>5403</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>17006</v>
+        <v>17014</v>
       </c>
       <c r="C209" s="4">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D209" s="4">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="E209" s="4">
-        <v>18247</v>
+        <v>18262</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C210" s="4">
         <v>75</v>
       </c>
       <c r="D210" s="4">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E210" s="4">
-        <v>1396</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>12056</v>
+        <v>12082</v>
       </c>
       <c r="C211" s="4">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="D211" s="4">
-        <v>3738</v>
+        <v>3760</v>
       </c>
       <c r="E211" s="4">
-        <v>16680</v>
+        <v>16738</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>175966</v>
+        <v>176199</v>
       </c>
       <c r="C213" s="4">
-        <v>9458</v>
+        <v>9465</v>
       </c>
       <c r="D213" s="4">
-        <v>28289</v>
+        <v>28484</v>
       </c>
       <c r="E213" s="4">
-        <v>213713</v>
+        <v>214148</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>4193</v>
+        <v>4196</v>
       </c>
       <c r="C214" s="4">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D214" s="4">
-        <v>4274</v>
+        <v>4277</v>
       </c>
       <c r="E214" s="4">
-        <v>8852</v>
+        <v>8859</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>50879</v>
+        <v>50921</v>
       </c>
       <c r="C215" s="4">
         <v>627</v>
       </c>
       <c r="D215" s="4">
-        <v>16687</v>
+        <v>16702</v>
       </c>
       <c r="E215" s="4">
-        <v>68193</v>
+        <v>68250</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>3076</v>
+        <v>3081</v>
       </c>
       <c r="C216" s="4">
         <v>132</v>
       </c>
       <c r="D216" s="4">
-        <v>2561</v>
+        <v>2568</v>
       </c>
       <c r="E216" s="4">
-        <v>5769</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C219" s="4">
         <v>29</v>
       </c>
       <c r="D219" s="4">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="E219" s="4">
-        <v>2014</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>4274</v>
+        <v>4284</v>
       </c>
       <c r="C220" s="4">
         <v>338</v>
       </c>
       <c r="D220" s="4">
-        <v>1009</v>
+        <v>1021</v>
       </c>
       <c r="E220" s="4">
-        <v>5621</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1670297</v>
+        <v>1674068</v>
       </c>
       <c r="C221" s="4">
-        <v>91595</v>
+        <v>91643</v>
       </c>
       <c r="D221" s="4">
-        <v>226860</v>
+        <v>228128</v>
       </c>
       <c r="E221" s="4">
-        <v>1988752</v>
+        <v>1993839</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>85082</v>
+        <v>85281</v>
       </c>
       <c r="C222" s="4">
         <v>3408</v>
       </c>
       <c r="D222" s="4">
-        <v>54320</v>
+        <v>54452</v>
       </c>
       <c r="E222" s="4">
-        <v>142810</v>
+        <v>143141</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>3640</v>
+        <v>3643</v>
       </c>
       <c r="C224" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D224" s="4">
-        <v>1504</v>
+        <v>1511</v>
       </c>
       <c r="E224" s="4">
-        <v>5257</v>
+        <v>5268</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>30</v>
       </c>
       <c r="D225" s="4">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E225" s="4">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>23057</v>
+        <v>23068</v>
       </c>
       <c r="C226" s="4">
         <v>1172</v>
       </c>
       <c r="D226" s="4">
-        <v>4098</v>
+        <v>4105</v>
       </c>
       <c r="E226" s="4">
-        <v>28327</v>
+        <v>28345</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>73744</v>
+        <v>73795</v>
       </c>
       <c r="C227" s="4">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="D227" s="4">
-        <v>45043</v>
+        <v>45124</v>
       </c>
       <c r="E227" s="4">
-        <v>120516</v>
+        <v>120650</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1057962</v>
+        <v>1061648</v>
       </c>
       <c r="C228" s="4">
-        <v>42233</v>
+        <v>42301</v>
       </c>
       <c r="D228" s="4">
-        <v>172831</v>
+        <v>173775</v>
       </c>
       <c r="E228" s="4">
-        <v>1273026</v>
+        <v>1277724</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>11442</v>
+        <v>11467</v>
       </c>
       <c r="C229" s="4">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D229" s="4">
-        <v>3279</v>
+        <v>3289</v>
       </c>
       <c r="E229" s="4">
-        <v>15208</v>
+        <v>15245</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>9638</v>
+        <v>9652</v>
       </c>
       <c r="C230" s="4">
         <v>945</v>
       </c>
       <c r="D230" s="4">
-        <v>5446</v>
+        <v>5474</v>
       </c>
       <c r="E230" s="4">
-        <v>16029</v>
+        <v>16071</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>11094</v>
+        <v>11112</v>
       </c>
       <c r="C231" s="4">
         <v>2057</v>
       </c>
       <c r="D231" s="4">
-        <v>3812</v>
+        <v>3841</v>
       </c>
       <c r="E231" s="4">
-        <v>16963</v>
+        <v>17010</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="C232" s="4">
         <v>74</v>
       </c>
       <c r="D232" s="4">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="E232" s="4">
-        <v>3188</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>24687</v>
+        <v>24716</v>
       </c>
       <c r="C233" s="4">
         <v>432</v>
       </c>
       <c r="D233" s="4">
-        <v>2009</v>
+        <v>2022</v>
       </c>
       <c r="E233" s="4">
-        <v>27128</v>
+        <v>27170</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>43852</v>
+        <v>43919</v>
       </c>
       <c r="C234" s="4">
         <v>1237</v>
       </c>
       <c r="D234" s="4">
-        <v>14497</v>
+        <v>14530</v>
       </c>
       <c r="E234" s="4">
-        <v>59586</v>
+        <v>59686</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>19598</v>
+        <v>19630</v>
       </c>
       <c r="C235" s="4">
-        <v>1851</v>
+        <v>1855</v>
       </c>
       <c r="D235" s="4">
-        <v>8447</v>
+        <v>8486</v>
       </c>
       <c r="E235" s="4">
-        <v>29896</v>
+        <v>29971</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>42030</v>
+        <v>42184</v>
       </c>
       <c r="C236" s="4">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="D236" s="4">
-        <v>16287</v>
+        <v>16347</v>
       </c>
       <c r="E236" s="4">
-        <v>60436</v>
+        <v>60652</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>107570</v>
+        <v>108074</v>
       </c>
       <c r="C237" s="4">
-        <v>2660</v>
+        <v>2676</v>
       </c>
       <c r="D237" s="4">
-        <v>15610</v>
+        <v>15688</v>
       </c>
       <c r="E237" s="4">
-        <v>125840</v>
+        <v>126438</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>35562</v>
+        <v>35633</v>
       </c>
       <c r="C238" s="4">
-        <v>1831</v>
+        <v>1836</v>
       </c>
       <c r="D238" s="4">
-        <v>4501</v>
+        <v>4536</v>
       </c>
       <c r="E238" s="4">
-        <v>41894</v>
+        <v>42005</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>4521</v>
+        <v>4530</v>
       </c>
       <c r="C239" s="4">
         <v>157</v>
       </c>
       <c r="D239" s="4">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="E239" s="4">
-        <v>5226</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>38026</v>
+        <v>38109</v>
       </c>
       <c r="C240" s="4">
-        <v>1595</v>
+        <v>1605</v>
       </c>
       <c r="D240" s="4">
-        <v>9024</v>
+        <v>9052</v>
       </c>
       <c r="E240" s="4">
-        <v>48645</v>
+        <v>48766</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>363857</v>
+        <v>364321</v>
       </c>
       <c r="C241" s="4">
         <v>4856</v>
       </c>
       <c r="D241" s="4">
-        <v>70879</v>
+        <v>71016</v>
       </c>
       <c r="E241" s="4">
-        <v>439592</v>
+        <v>440193</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>32420</v>
+        <v>32473</v>
       </c>
       <c r="C242" s="4">
-        <v>2061</v>
+        <v>2072</v>
       </c>
       <c r="D242" s="4">
-        <v>4428</v>
+        <v>4445</v>
       </c>
       <c r="E242" s="4">
-        <v>38909</v>
+        <v>38990</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="C243" s="4">
         <v>408</v>
       </c>
       <c r="D243" s="4">
-        <v>2146</v>
+        <v>2156</v>
       </c>
       <c r="E243" s="4">
-        <v>4142</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>105356</v>
+        <v>105407</v>
       </c>
       <c r="C244" s="4">
-        <v>6775</v>
+        <v>6777</v>
       </c>
       <c r="D244" s="4">
-        <v>23951</v>
+        <v>24021</v>
       </c>
       <c r="E244" s="4">
-        <v>136082</v>
+        <v>136205</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>12368</v>
+        <v>12378</v>
       </c>
       <c r="C245" s="4">
         <v>618</v>
       </c>
       <c r="D245" s="4">
-        <v>5054</v>
+        <v>5056</v>
       </c>
       <c r="E245" s="4">
-        <v>18040</v>
+        <v>18052</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>26217</v>
+        <v>26255</v>
       </c>
       <c r="C246" s="4">
         <v>183</v>
       </c>
       <c r="D246" s="4">
-        <v>3182</v>
+        <v>3208</v>
       </c>
       <c r="E246" s="4">
-        <v>29582</v>
+        <v>29646</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>449691</v>
+        <v>451135</v>
       </c>
       <c r="C247" s="4">
-        <v>15736</v>
+        <v>15753</v>
       </c>
       <c r="D247" s="4">
-        <v>80472</v>
+        <v>81005</v>
       </c>
       <c r="E247" s="4">
-        <v>545899</v>
+        <v>547893</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>34377</v>
+        <v>34440</v>
       </c>
       <c r="C248" s="4">
         <v>1121</v>
       </c>
       <c r="D248" s="4">
-        <v>8599</v>
+        <v>8610</v>
       </c>
       <c r="E248" s="4">
-        <v>44097</v>
+        <v>44171</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C249" s="4">
         <v>48</v>
       </c>
       <c r="D249" s="4">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E249" s="4">
-        <v>1354</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>47521</v>
+        <v>47694</v>
       </c>
       <c r="C250" s="4">
         <v>3233</v>
       </c>
       <c r="D250" s="4">
-        <v>6707</v>
+        <v>6751</v>
       </c>
       <c r="E250" s="4">
-        <v>57461</v>
+        <v>57678</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>17173</v>
+        <v>17210</v>
       </c>
       <c r="C251" s="4">
-        <v>1849</v>
+        <v>1851</v>
       </c>
       <c r="D251" s="4">
-        <v>4621</v>
+        <v>4648</v>
       </c>
       <c r="E251" s="4">
-        <v>23643</v>
+        <v>23709</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5327,10 +5327,10 @@
         <v>116</v>
       </c>
       <c r="D252" s="4">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E252" s="4">
-        <v>2943</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>7132</v>
+        <v>7145</v>
       </c>
       <c r="C253" s="4">
         <v>564</v>
       </c>
       <c r="D253" s="4">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="E253" s="4">
-        <v>10016</v>
+        <v>10032</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>16353</v>
+        <v>16365</v>
       </c>
       <c r="C254" s="4">
         <v>130</v>
       </c>
       <c r="D254" s="4">
-        <v>6343</v>
+        <v>6353</v>
       </c>
       <c r="E254" s="4">
-        <v>22826</v>
+        <v>22848</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>9649</v>
+        <v>9654</v>
       </c>
       <c r="C255" s="4">
         <v>241</v>
       </c>
       <c r="D255" s="4">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="E255" s="4">
-        <v>10879</v>
+        <v>10890</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>140631</v>
+        <v>140746</v>
       </c>
       <c r="C256" s="4">
-        <v>13209</v>
+        <v>13222</v>
       </c>
       <c r="D256" s="4">
-        <v>9698</v>
+        <v>9809</v>
       </c>
       <c r="E256" s="4">
-        <v>163538</v>
+        <v>163777</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>23638436</v>
+        <v>23700181</v>
       </c>
       <c r="C257" s="4">
-        <v>1293497</v>
+        <v>1296811</v>
       </c>
       <c r="D257" s="4">
-        <v>4154170</v>
+        <v>4175258</v>
       </c>
       <c r="E257" s="4">
-        <v>29086103</v>
+        <v>29172250</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
